--- a/test_cplus_results.xlsx
+++ b/test_cplus_results.xlsx
@@ -37,21 +37,36 @@
     <t>FaceDetection</t>
   </si>
   <si>
-    <t xml:space="preserve">FaceDetection/camera.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-FaceDetection/test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-FaceDetection/libmtcnn/tensorflow_mtcnn.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-FaceDetection/libmtcnn/comm_lib.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">FaceDetection/camera.cpp: ("mtcnn.hpp"
+ "utils.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+FaceDetection/test.cpp: ("mtcnn.hpp"
+ "utils.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+FaceDetection/libmtcnn/tensorflow_mtcnn.cpp: ("mtcnn.hpp"
+ "comm_lib.hpp"
+ "utils.hpp"
+ "tensorflow_mtcnn.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+FaceDetection/libmtcnn/comm_lib.cpp: ("mtcnn.hpp"
+ "comm_lib.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 FaceDetection/libmtcnn/utils.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-FaceDetection/libmtcnn/mxnet_mtcnn.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-FaceDetection/libmtcnn/mtcnn.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-FaceDetection/libmtcnn/caffe_mtcnn.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+FaceDetection/libmtcnn/mxnet_mtcnn.cpp: ("mtcnn.hpp"
+ "mxnet_mtcnn.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+FaceDetection/libmtcnn/mtcnn.cpp: ("mtcnn.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+FaceDetection/libmtcnn/caffe_mtcnn.cpp: ("mtcnn.hpp"
+ "caffe_mtcnn.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 </t>
   </si>
@@ -2269,37 +2284,50 @@
 ---
 cpp-netlib/libs/network/test/http_server_async_less_copy.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cpp-netlib/libs/network/test/http/client_localhost_ssl_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-cpp-netlib/libs/network/test/http/client_get_streaming_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-cpp-netlib/libs/network/test/http/request_linearize_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+cpp-netlib/libs/network/test/http/client_localhost_ssl_test.cpp: ("http_test_server.hpp"
+ "client_types.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+cpp-netlib/libs/network/test/http/client_get_streaming_test.cpp: ("client_types.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+cpp-netlib/libs/network/test/http/request_linearize_test.cpp: ("tag_types.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 cpp-netlib/libs/network/test/http/response_incremental_parser_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cpp-netlib/libs/network/test/http/client_get_different_port_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-cpp-netlib/libs/network/test/http/client_get_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+cpp-netlib/libs/network/test/http/client_get_different_port_test.cpp: ("client_types.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+cpp-netlib/libs/network/test/http/client_get_test.cpp: ("client_types.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 cpp-netlib/libs/network/test/http/server_async_run_stop_concurrency.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 cpp-netlib/libs/network/test/http/request_incremental_parser_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cpp-netlib/libs/network/test/http/message_async_ready_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+cpp-netlib/libs/network/test/http/message_async_ready_test.cpp: ("tag_types.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 cpp-netlib/libs/network/test/http/message_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
 cpp-netlib/libs/network/test/http/server_header_parser_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cpp-netlib/libs/network/test/http/client_constructor_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-cpp-netlib/libs/network/test/http/client_get_timeout_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+cpp-netlib/libs/network/test/http/client_constructor_test.cpp: ("client_types.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+cpp-netlib/libs/network/test/http/client_get_timeout_test.cpp: ("client_types.hpp"
+ "http_test_server.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 cpp-netlib/libs/network/test/http/server_constructor_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cpp-netlib/libs/network/test/http/client_get_ready_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-cpp-netlib/libs/network/test/http/client_localhost_normal_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+cpp-netlib/libs/network/test/http/client_get_ready_test.cpp: ("client_types.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+cpp-netlib/libs/network/test/http/client_localhost_normal_test.cpp: ("client_types.hpp"
+ "http_test_server.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 cpp-netlib/libs/network/test/http/client/request_test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
@@ -2331,13 +2359,17 @@
 ---
 cpp-netlib/libs/network/example/http/ssl/ssl_server.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
 ---
-cpp-netlib/libs/network/example/atom/atom.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-cpp-netlib/libs/network/example/atom/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-cpp-netlib/libs/network/example/rss/rss.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-cpp-netlib/libs/network/example/rss/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+cpp-netlib/libs/network/example/atom/atom.cpp: ("atom.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+cpp-netlib/libs/network/example/atom/main.cpp: ("atom.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+cpp-netlib/libs/network/example/rss/rss.cpp: ("rss.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+cpp-netlib/libs/network/example/rss/main.cpp: ("rss.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 </t>
   </si>
@@ -3439,11 +3471,14 @@
     <t>lrucache11</t>
   </si>
   <si>
-    <t xml:space="preserve">lrucache11/LRUCache11Test.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-lrucache11/SampleMain.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-lrucache11/VectorKeyTest.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">lrucache11/LRUCache11Test.cpp: ("LRUCache11.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+lrucache11/SampleMain.cpp: ("LRUCache11.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+lrucache11/VectorKeyTest.cpp: ("LRUCache11.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 </t>
   </si>
@@ -4549,17 +4584,29 @@
     <t>blink</t>
   </si>
   <si>
-    <t xml:space="preserve">blink/source/pdb_reader.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-blink/source/msf_reader.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-blink/source/main.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-blink/source/blink.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-blink/source/blink_linker.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
----
-blink/source/coff_reader.cpp: (# of file-dependencies: 0, # of module-dependencies: 0)
+    <t xml:space="preserve">blink/source/pdb_reader.cpp: ("pdb_reader.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+blink/source/msf_reader.cpp: ("msf_reader.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+blink/source/main.cpp: ("blink.hpp"
+ "scoped_handle.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+blink/source/blink.cpp: ("blink.hpp"
+ "pdb_reader.hpp"
+ "coff_reader.hpp"
+ "scoped_handle.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+blink/source/blink_linker.cpp: ("blink.hpp"
+ "coff_reader.hpp"
+ "scoped_handle.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
+---
+blink/source/coff_reader.cpp: ("coff_reader.hpp"
+ # of file-dependencies: 0, # of module-dependencies: 2)
 ---
 </t>
   </si>
@@ -5135,13 +5182,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
@@ -5175,7 +5222,7 @@
         <v>198</v>
       </c>
       <c r="C4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -5312,13 +5359,13 @@
         <v>737</v>
       </c>
       <c r="C11">
-        <v>1990</v>
+        <v>2351</v>
       </c>
       <c r="D11">
         <v>463</v>
       </c>
       <c r="E11">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="F11" t="s">
         <v>24</v>
@@ -5332,13 +5379,13 @@
         <v>44</v>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
         <v>26</v>
@@ -5352,7 +5399,7 @@
         <v>1458</v>
       </c>
       <c r="C13">
-        <v>1343</v>
+        <v>1355</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -5392,7 +5439,7 @@
         <v>99</v>
       </c>
       <c r="C15">
-        <v>310</v>
+        <v>479</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -5432,13 +5479,13 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F17" t="s">
         <v>36</v>
@@ -5569,13 +5616,13 @@
         <v>6</v>
       </c>
       <c r="C24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>49</v>
